--- a/ReturnsCalculations.xlsx
+++ b/ReturnsCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Documents/NBADataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE92F32-2C29-9646-B9C1-AA7FFB4337E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD62B03-9615-4440-950A-5FDCAF0D9BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{0B0A54B6-9E21-F749-A70B-9633D2A512FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
   <si>
     <t>Home Team</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>P(&gt;=n)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>P(Optimal) Strat</t>
+  </si>
+  <si>
+    <t>Betting Overs Strat</t>
+  </si>
+  <si>
+    <t>**&lt;- count this bet too since it thinks the under is 67% likely to win</t>
   </si>
 </sst>
 </file>
@@ -354,7 +366,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -380,13 +392,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -727,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B64B43-6E66-9D44-9537-2703A72D2A98}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,19 +791,24 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -799,8 +857,17 @@
       <c r="P1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -857,8 +924,19 @@
         <f>O2</f>
         <v>0.30957979316041728</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="25">
+        <f>-166.67/300</f>
+        <v>-0.55556666666666665</v>
+      </c>
+      <c r="S2" s="25">
+        <f>97.46/500</f>
+        <v>0.19491999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -913,8 +991,19 @@
         <f>O3+P2</f>
         <v>0.71866849525820731</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="25">
+        <f>138.35/500</f>
+        <v>0.2767</v>
+      </c>
+      <c r="S3" s="25">
+        <f>211/500</f>
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -969,8 +1058,11 @@
         <f t="shared" ref="P4:P7" si="7">O4+P3</f>
         <v>0.93490168603023616</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1118,7 @@
         <v>0.99204918552323818</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1177,7 @@
         <v>0.99960084002790162</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1255,7 +1347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1436,7 @@
         <v>N</v>
       </c>
       <c r="L12" s="17">
-        <v>23.95</v>
+        <v>190</v>
       </c>
       <c r="M12" s="17">
         <f>IF(D12&gt;0.65, IF(K12="Y",100^2/-E12, -100), 0)</f>
@@ -1363,7 +1455,7 @@
         <v>0.24564611866565805</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1403,7 +1495,8 @@
         <v>Y</v>
       </c>
       <c r="L13" s="17">
-        <v>19.510000000000002</v>
+        <f>100^2/-E13</f>
+        <v>76.92307692307692</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" ref="M13:M21" si="12">IF(D13&gt;0.65, IF(K13="Y",100^2/-E13, -100), 0)</f>
@@ -1422,7 +1515,7 @@
         <v>0.64378018811317572</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1477,8 +1570,12 @@
         <f t="shared" ref="P14:P17" si="15">O14+P13</f>
         <v>0.90189252974652412</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <f>COUNTIF(K2:K100,"=Y")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1534,8 +1631,12 @@
         <f t="shared" si="15"/>
         <v>0.98556030150479179</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <f>COUNTIF(K2:K100,"=Y")+COUNTIF(K2:K100,"=N")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1592,6 +1693,10 @@
         <f t="shared" si="15"/>
         <v>0.99912086196984995</v>
       </c>
+      <c r="S16">
+        <f>20/38</f>
+        <v>0.52631578947368418</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -1632,7 +1737,8 @@
         <v>Y</v>
       </c>
       <c r="L17" s="17">
-        <v>21.39</v>
+        <f>100^2/-E17</f>
+        <v>71.428571428571431</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="12"/>
@@ -1843,7 +1949,7 @@
       <c r="K22" s="23"/>
       <c r="L22" s="18">
         <f>SUM(L12:L21)</f>
-        <v>-135.15</v>
+        <v>138.35164835164835</v>
       </c>
       <c r="M22" s="18">
         <f>SUM(M12:M21)</f>
@@ -1917,11 +2023,11 @@
         <v>0.50339999999999996</v>
       </c>
       <c r="E24" s="10">
-        <v>-110</v>
+        <v>-130</v>
       </c>
       <c r="F24" s="10">
-        <f>100^2/110</f>
-        <v>90.909090909090907</v>
+        <f>100^2/105</f>
+        <v>95.238095238095241</v>
       </c>
       <c r="G24" s="11">
         <f>IF(E24&lt;0,D24,1-D24)</f>
@@ -1929,14 +2035,14 @@
       </c>
       <c r="H24" s="12">
         <f t="shared" ref="H24:H29" si="16">G24*100*100/-E24+(1-G24)*-100</f>
-        <v>-3.8963636363636382</v>
+        <v>-10.93692307692308</v>
       </c>
       <c r="I24" s="12">
         <f t="shared" ref="I24:I29" si="17">(1-G24)*100*F24/100+G24*-100</f>
-        <v>-5.1945454545454481</v>
+        <v>-3.0447619047618986</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K24" s="10" t="str">
         <f t="shared" ref="K24:K29" si="18">IF(C24=J24,"Y","N")</f>
@@ -1953,11 +2059,11 @@
       </c>
       <c r="O24">
         <f>_xlfn.BINOM.DIST(N24,N$24,AVERAGEIF(D$24:D$29, "&gt;0.65"), FALSE)</f>
-        <v>0.38371229629629616</v>
+        <v>0.4244960343488749</v>
       </c>
       <c r="P24">
         <f>O24</f>
-        <v>0.38371229629629616</v>
+        <v>0.4244960343488749</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1974,11 +2080,10 @@
         <v>0.7218</v>
       </c>
       <c r="E25">
-        <v>-110</v>
+        <v>-220</v>
       </c>
       <c r="F25">
-        <f>100^2/110</f>
-        <v>90.909090909090907</v>
+        <v>155</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ref="G25:G29" si="19">IF(E25&lt;0,D25,1-D25)</f>
@@ -1986,14 +2091,14 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="16"/>
-        <v>37.798181818181824</v>
+        <v>4.9890909090909119</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="17"/>
-        <v>-46.889090909090918</v>
+        <v>-29.059000000000005</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="18"/>
@@ -2010,11 +2115,11 @@
       </c>
       <c r="O25">
         <f t="shared" ref="O25:O27" si="21">_xlfn.BINOM.DIST(N25,N$24,AVERAGEIF(D$24:D$29, "&gt;0.65"), FALSE)</f>
-        <v>0.43299644444444452</v>
+        <v>0.42099410445337504</v>
       </c>
       <c r="P25">
         <f>O25+P24</f>
-        <v>0.81670874074074074</v>
+        <v>0.84549013880224999</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2031,11 +2136,10 @@
         <v>0.64419999999999999</v>
       </c>
       <c r="E26">
-        <v>-112</v>
+        <v>-180</v>
       </c>
       <c r="F26">
-        <f>100^2/108</f>
-        <v>92.592592592592595</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="19"/>
@@ -2043,20 +2147,23 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="16"/>
-        <v>21.937857142857148</v>
+        <v>0.20888888888889312</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="17"/>
-        <v>-31.475555555555559</v>
+        <v>-18.166000000000004</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
-      </c>
-      <c r="L26" s="17"/>
+        <v>Y</v>
+      </c>
+      <c r="L26" s="17">
+        <f>100^2/180</f>
+        <v>55.555555555555557</v>
+      </c>
       <c r="M26" s="17">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -2067,11 +2174,11 @@
       </c>
       <c r="O26">
         <f t="shared" si="21"/>
-        <v>0.16287022222222236</v>
+        <v>0.13917368804662508</v>
       </c>
       <c r="P26">
         <f t="shared" ref="P26:P29" si="23">O26+P25</f>
-        <v>0.9795789629629631</v>
+        <v>0.9846638268488751</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2088,11 +2195,10 @@
         <v>0.78129999999999999</v>
       </c>
       <c r="E27">
-        <v>-110</v>
+        <v>-175</v>
       </c>
       <c r="F27">
-        <f>100^2/110</f>
-        <v>90.909090909090907</v>
+        <v>130</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="19"/>
@@ -2100,23 +2206,26 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="16"/>
-        <v>49.157272727272726</v>
+        <v>22.775714285714283</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="17"/>
-        <v>-58.248181818181813</v>
+        <v>-49.698999999999998</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
-      </c>
-      <c r="L27" s="17"/>
+        <v>Y</v>
+      </c>
+      <c r="L27" s="17">
+        <f>100^2/175</f>
+        <v>57.142857142857146</v>
+      </c>
       <c r="M27" s="17">
         <f t="shared" si="20"/>
-        <v>-100</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="N27">
         <f t="shared" si="22"/>
@@ -2124,7 +2233,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="21"/>
-        <v>2.042103703703706E-2</v>
+        <v>1.5336173151125019E-2</v>
       </c>
       <c r="P27">
         <f t="shared" si="23"/>
@@ -2142,38 +2251,42 @@
         <v>39</v>
       </c>
       <c r="D28" s="2">
-        <v>0.67689999999999995</v>
+        <f>100%-67.69%</f>
+        <v>0.32310000000000005</v>
       </c>
       <c r="E28">
-        <v>-110</v>
+        <v>-145</v>
       </c>
       <c r="F28">
-        <f>100^2/110</f>
-        <v>90.909090909090907</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="19"/>
-        <v>0.67689999999999995</v>
+        <f>IF(E28&lt;0,D28,1-D28)</f>
+        <v>0.32310000000000005</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="16"/>
-        <v>29.226363636363637</v>
+        <v>-45.407241379310342</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="17"/>
-        <v>-38.317272727272723</v>
+        <v>38.764499999999998</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="18"/>
         <v>N</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="17">
+        <v>-100</v>
+      </c>
       <c r="M28" s="17">
-        <f t="shared" si="20"/>
         <v>-100</v>
+      </c>
+      <c r="N28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2190,11 +2303,10 @@
         <v>0.62570000000000003</v>
       </c>
       <c r="E29">
-        <v>-110</v>
+        <v>-185</v>
       </c>
       <c r="F29">
-        <f>100^2/110</f>
-        <v>90.909090909090907</v>
+        <v>130</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="19"/>
@@ -2202,14 +2314,14 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="16"/>
-        <v>19.451818181818183</v>
+        <v>-3.6083783783783758</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="17"/>
-        <v>-28.542727272727276</v>
+        <v>-13.911000000000001</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="18"/>
@@ -2235,19 +2347,766 @@
       <c r="K30" s="23"/>
       <c r="L30" s="18">
         <f>SUM(L24:L29)</f>
-        <v>0</v>
+        <v>12.69841269841271</v>
       </c>
       <c r="M30" s="18">
         <f>SUM(M24:M29)</f>
-        <v>-300</v>
+        <v>-142.85714285714286</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="E32" s="10">
+        <v>-295</v>
+      </c>
+      <c r="F32" s="10">
+        <v>210</v>
+      </c>
+      <c r="G32" s="11">
+        <f>IF(E32&lt;0,D32,1-D32)</f>
+        <v>0.52066999999999997</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" ref="H32:H37" si="24">G32*100*100/-E32+(1-G32)*-100</f>
+        <v>-30.283169491525435</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" ref="I32:I37" si="25">(1-G32)*100*F32/100+G32*-100</f>
+        <v>48.592300000000023</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f t="shared" ref="K32:K37" si="26">IF(C32=J32,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="L32" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="17">
+        <f>IF(D32&gt;0.65, IF(K32="Y",100^2/-E32, -100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="E33">
+        <v>-1265</v>
+      </c>
+      <c r="F33">
+        <v>600</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ref="G33:G35" si="27">IF(E33&lt;0,D33,1-D33)</f>
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="24"/>
+        <v>-13.654308300395254</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="25"/>
+        <v>39.859999999999985</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="26"/>
+        <v>Y</v>
+      </c>
+      <c r="L33" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" ref="M33:M37" si="28">IF(D33&gt;0.65, IF(K33="Y",100^2/-E33, -100), 0)</f>
+        <v>7.9051383399209483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="E34">
+        <v>-370</v>
+      </c>
+      <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="27"/>
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="24"/>
+        <v>-8.7564864864864802</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="25"/>
+        <v>-1.4050000000000011</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="26"/>
+        <v>Y</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17">
+        <f t="shared" si="28"/>
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E35">
+        <v>-270</v>
+      </c>
+      <c r="F35">
+        <v>190</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="27"/>
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="24"/>
+        <v>-15.24259259259258</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="25"/>
+        <v>10.634999999999977</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="26"/>
+        <v>Y</v>
+      </c>
+      <c r="L35" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="E36">
+        <v>-260</v>
+      </c>
+      <c r="F36">
+        <v>185</v>
+      </c>
+      <c r="G36" s="2">
+        <f>IF(E36&lt;0,D36,1-D36)</f>
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="24"/>
+        <v>-19.346153846153847</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="25"/>
+        <v>18.987499999999997</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="26"/>
+        <v>Y</v>
+      </c>
+      <c r="L36" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="E37">
+        <v>-120</v>
+      </c>
+      <c r="F37">
+        <f>100^2/115</f>
+        <v>86.956521739130437</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" ref="G37:G38" si="29">IF(E37&lt;0,D37,1-D37)</f>
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="24"/>
+        <v>14.711666666666666</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="25"/>
+        <v>-30.022173913043481</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="26"/>
+        <v>Y</v>
+      </c>
+      <c r="L37" s="17">
+        <v>14.71</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="18">
+        <f>SUM(L32:L37)</f>
+        <v>-385.29</v>
+      </c>
+      <c r="M38" s="18">
+        <f>SUM(M32:M37)</f>
+        <v>34.932165366947977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="E40" s="10">
+        <v>-120</v>
+      </c>
+      <c r="F40" s="10">
+        <f>100^2/110</f>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="G40" s="11">
+        <f>IF(E40&lt;0,D40,1-D40)</f>
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" ref="H40:H47" si="30">G40*100*100/-E40+(1-G40)*-100</f>
+        <v>8.7349999999999852</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" ref="I40:I47" si="31">(1-G40)*100*F40/100+G40*-100</f>
+        <v>-22.319090909090903</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="str">
+        <f t="shared" ref="K40:K47" si="32">IF(C40=J40,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="L40" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M40" s="17">
+        <f>IF(D40&gt;0.65, IF(K40="Y",100^2/-E40, -100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="E41" s="24">
+        <v>-150</v>
+      </c>
+      <c r="F41">
+        <v>110</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" ref="G41:G43" si="33">IF(E41&lt;0,D41,1-D41)</f>
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="30"/>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="31"/>
+        <v>-21.838000000000001</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L41" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" ref="M41:M47" si="34">IF(D41&gt;0.65, IF(K41="Y",100^2/-E41, -100), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="E42" s="24">
+        <v>-465</v>
+      </c>
+      <c r="F42">
+        <v>300</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="33"/>
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="30"/>
+        <v>1.5906451612903183</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="31"/>
+        <v>-34.439999999999991</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17">
+        <f t="shared" si="34"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="E43" s="24">
+        <v>-390</v>
+      </c>
+      <c r="F43">
+        <v>260</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="33"/>
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="30"/>
+        <v>-9.6264102564102458</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="31"/>
+        <v>1.0519999999999783</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L43" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" si="34"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="E44" s="24">
+        <v>-2560</v>
+      </c>
+      <c r="F44">
+        <v>835</v>
+      </c>
+      <c r="G44" s="2">
+        <f>IF(E44&lt;0,D44,1-D44)</f>
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="30"/>
+        <v>-12.905781250000008</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="31"/>
+        <v>51.283000000000072</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L44" s="17">
+        <v>-100</v>
+      </c>
+      <c r="M44" s="17">
+        <f t="shared" si="34"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2">
+        <f>100%-52.17%</f>
+        <v>0.47829999999999995</v>
+      </c>
+      <c r="E45" s="24">
+        <v>-195</v>
+      </c>
+      <c r="F45">
+        <v>140</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" ref="G45:G47" si="35">IF(E45&lt;0,D45,1-D45)</f>
+        <v>0.47829999999999995</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="30"/>
+        <v>-27.641794871794872</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="31"/>
+        <v>25.207999999999998</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L45" s="17">
+        <v>14.71</v>
+      </c>
+      <c r="M45" s="17">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="E46" s="24">
+        <v>-785</v>
+      </c>
+      <c r="F46">
+        <v>445</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="35"/>
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="30"/>
+        <v>-7.9938216560509492</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="31"/>
+        <v>0.22549999999996828</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17">
+        <f t="shared" si="34"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="E47" s="24">
+        <v>-330</v>
+      </c>
+      <c r="F47">
+        <v>225</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="35"/>
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="30"/>
+        <v>-13.726363636363633</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="31"/>
+        <v>9.8174999999999955</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" t="str">
+        <f t="shared" si="32"/>
+        <v>N</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17">
+        <f t="shared" si="34"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="18">
+        <f>SUM(L40:L45)</f>
+        <v>-385.29</v>
+      </c>
+      <c r="M48" s="18">
+        <f>SUM(M40:M45)</f>
+        <v>-300</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D21">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
@@ -2257,7 +3116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I9">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2269,7 +3128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:I21">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2281,10 +3140,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K2)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2296,8 +3155,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K21">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K12)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D29">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:I29">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K29">
+    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K24)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D37">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I37">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K37">
     <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",K32)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2310,7 +3243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D29">
+  <conditionalFormatting sqref="D40:D47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.5"/>
@@ -2320,8 +3253,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:I29">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H40:I47">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2332,11 +3265,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K29">
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K24)))</formula>
+  <conditionalFormatting sqref="K40:K47">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K40)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2348,5 +3281,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ReturnsCalculations.xlsx
+++ b/ReturnsCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Documents/NBADataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD62B03-9615-4440-950A-5FDCAF0D9BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C61FF9-7CD2-9549-B47F-EFF8A34C5A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{0B0A54B6-9E21-F749-A70B-9633D2A512FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{0B0A54B6-9E21-F749-A70B-9633D2A512FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="47">
   <si>
     <t>Home Team</t>
   </si>
@@ -110,9 +110,6 @@
     <t>P/L</t>
   </si>
   <si>
-    <t>Day Total</t>
-  </si>
-  <si>
     <t>Model Corr</t>
   </si>
   <si>
@@ -173,15 +170,6 @@
     <t>Betting 65%+ Overs</t>
   </si>
   <si>
-    <t>Trials</t>
-  </si>
-  <si>
-    <t>P(n)</t>
-  </si>
-  <si>
-    <t>P(&gt;=n)</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
   </si>
   <si>
     <t>Betting Overs Strat</t>
-  </si>
-  <si>
-    <t>**&lt;- count this bet too since it thinks the under is 67% likely to win</t>
   </si>
 </sst>
 </file>
@@ -240,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -275,26 +260,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -360,39 +325,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -783,7 +763,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+      <selection activeCell="N48" sqref="A48:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,7 +781,7 @@
     <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
     <col min="15" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -809,66 +789,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -905,39 +881,31 @@
         <f t="shared" ref="K2:K9" si="2">IF(C2=J2,"Y","N")</f>
         <v>Y</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="9">
         <v>-100</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="9">
         <f>IF(D2&gt;0.65, IF(K2="Y",100^2/-E2, -100), 0)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="N2">
-        <f>COUNTIF(M2:M9, "&lt;&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <f>_xlfn.BINOM.DIST(N2,N$2,AVERAGEIF(D$2:D$11, "&gt;0.65"), FALSE)</f>
-        <v>0.30957979316041728</v>
-      </c>
-      <c r="P2">
-        <f>O2</f>
-        <v>0.30957979316041728</v>
+      <c r="N2" s="19">
+        <f>IF(K2="Y",IF(D2&gt;0.5,100^2/-E2,F2),-100)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="17">
         <f>-166.67/300</f>
         <v>-0.55556666666666665</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="17">
         <f>97.46/500</f>
         <v>0.19491999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -974,37 +942,29 @@
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9">
         <f t="shared" ref="M3:M9" si="4">IF(D3&gt;0.65, IF(K3="Y",100^2/-E3, -100), 0)</f>
         <v>28.571428571428573</v>
       </c>
-      <c r="N3">
-        <f>N2-1</f>
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O7" si="5">_xlfn.BINOM.DIST(N3,N$2,AVERAGEIF(D$2:D$11, "&gt;0.65"), FALSE)</f>
-        <v>0.40908870209779002</v>
-      </c>
-      <c r="P3">
-        <f>O3+P2</f>
-        <v>0.71866849525820731</v>
+      <c r="N3" s="19">
+        <f t="shared" ref="N3:N9" si="5">IF(K3="Y",IF(D3&gt;0.5,100^2/-E3,F3),-100)</f>
+        <v>28.571428571428573</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="17">
         <f>138.35/500</f>
         <v>0.2767</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="17">
         <f>211/500</f>
         <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1041,29 +1001,21 @@
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
         <f t="shared" si="4"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N7" si="6">N3-1</f>
-        <v>3</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="19">
         <f t="shared" si="5"/>
-        <v>0.21623319077202888</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P7" si="7">O4+P3</f>
-        <v>0.93490168603023616</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -1100,26 +1052,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="19">
         <f t="shared" si="5"/>
-        <v>5.7147499493002019E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>0.99204918552323818</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -1156,29 +1100,21 @@
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="9">
         <f>100*100/300</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="9">
         <f t="shared" si="4"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="19">
         <f t="shared" si="5"/>
-        <v>7.5516545046634088E-3</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="7"/>
-        <v>0.99960084002790162</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -1215,26 +1151,18 @@
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="19">
         <f t="shared" si="5"/>
-        <v>3.9915997209842135E-4</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -1265,205 +1193,200 @@
         <v>2.2000000000000028</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
         <v>N</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N8" s="19">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="2">
         <v>0.80610000000000004</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="21">
         <v>-1000</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="21">
         <v>535</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>0.80610000000000004</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>-11.328999999999997</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="22">
         <f t="shared" si="1"/>
         <v>23.126499999999979</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="14" t="str">
+      <c r="K9" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="9">
         <v>-100</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="9">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="N9" s="19">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="18">
+      <c r="A10" s="15"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="10">
         <f>SUM(L2:L9)</f>
         <v>-166.66666666666666</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="10">
         <f>SUM(M2:M9)</f>
         <v>97.460317460317469</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="26">
+        <f>SUM(N2:N9)</f>
+        <v>-202.53968253968253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="M11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.5726</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>-270</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>190</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <f>IF(E12&lt;0,D12,1-D12)</f>
         <v>0.5726</v>
       </c>
-      <c r="H12" s="12">
-        <f t="shared" ref="H12:H21" si="8">G12*100*100/-E12+(1-G12)*-100</f>
+      <c r="H12" s="8">
+        <f t="shared" ref="H12:H21" si="6">G12*100*100/-E12+(1-G12)*-100</f>
         <v>-21.532592592592593</v>
       </c>
-      <c r="I12" s="12">
-        <f t="shared" ref="I12:I21" si="9">(1-G12)*100*F12/100+G12*-100</f>
+      <c r="I12" s="8">
+        <f t="shared" ref="I12:I21" si="7">(1-G12)*100*F12/100+G12*-100</f>
         <v>23.946000000000005</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="10" t="str">
-        <f t="shared" ref="K12:K21" si="10">IF(C12=J12,"Y","N")</f>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="str">
+        <f t="shared" ref="K12:K21" si="8">IF(C12=J12,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>190</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="9">
         <f>IF(D12&gt;0.65, IF(K12="Y",100^2/-E12, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N12">
-        <f>COUNTIF(M12:M21, "&lt;&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <f>_xlfn.BINOM.DIST(N12,N$12,AVERAGEIF(D$12:D$21, "&gt;0.65"), FALSE)</f>
-        <v>0.24564611866565805</v>
-      </c>
-      <c r="P12">
-        <f>O12</f>
-        <v>0.24564611866565805</v>
+      <c r="N12" s="19">
+        <f>IF(K12="Y",IF(D12&gt;0.5,100^2/-E12,F12),-100)</f>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>0.67549999999999999</v>
@@ -1476,51 +1399,43 @@
         <v>90.909090909090907</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13:G21" si="11">IF(E13&lt;0,D13,1-D13)</f>
+        <f t="shared" ref="G13:G21" si="9">IF(E13&lt;0,D13,1-D13)</f>
         <v>0.67549999999999999</v>
       </c>
       <c r="H13" s="3">
+        <f t="shared" si="6"/>
+        <v>19.511538461538457</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="7"/>
+        <v>-38.049999999999997</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="8"/>
-        <v>19.511538461538457</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="9"/>
-        <v>-38.049999999999997</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="10"/>
         <v>Y</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="9">
         <f>100^2/-E13</f>
         <v>76.92307692307692</v>
       </c>
-      <c r="M13" s="17">
-        <f t="shared" ref="M13:M21" si="12">IF(D13&gt;0.65, IF(K13="Y",100^2/-E13, -100), 0)</f>
+      <c r="M13" s="9">
+        <f t="shared" ref="M13:M21" si="10">IF(D13&gt;0.65, IF(K13="Y",100^2/-E13, -100), 0)</f>
         <v>76.92307692307692</v>
       </c>
-      <c r="N13">
-        <f>N12-1</f>
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ref="O13:O17" si="13">_xlfn.BINOM.DIST(N13,N$12,AVERAGEIF(D$12:D$21, "&gt;0.65"), FALSE)</f>
-        <v>0.39813406944751772</v>
-      </c>
-      <c r="P13">
-        <f>O13+P12</f>
-        <v>0.64378018811317572</v>
+      <c r="N13" s="19">
+        <f t="shared" ref="N13:N21" si="11">IF(K13="Y",IF(D13&gt;0.5,100^2/-E13,F13),-100)</f>
+        <v>76.92307692307692</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1535,55 +1450,47 @@
         <v>250</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="9"/>
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5962162162162095</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="7"/>
+        <v>-29.929999999999978</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9">
+        <f t="shared" si="10"/>
+        <v>27.027027027027028</v>
+      </c>
+      <c r="N14" s="19">
         <f t="shared" si="11"/>
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5962162162162095</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="9"/>
-        <v>-29.929999999999978</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17">
-        <f t="shared" si="12"/>
         <v>27.027027027027028</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N17" si="14">N13-1</f>
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="13"/>
-        <v>0.25811234163334845</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ref="P14:P17" si="15">O14+P13</f>
-        <v>0.90189252974652412</v>
       </c>
       <c r="S14">
         <f>COUNTIF(K2:K100,"=Y")</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>0.53449999999999998</v>
@@ -1596,40 +1503,32 @@
         <v>86.956521739130437</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="9"/>
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.00833333333334</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="7"/>
+        <v>-12.97173913043477</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="8"/>
+        <v>N</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
         <f t="shared" si="11"/>
-        <v>0.53449999999999998</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="8"/>
-        <v>-2.00833333333334</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="9"/>
-        <v>-12.97173913043477</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="13"/>
-        <v>8.3667771758267631E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="15"/>
-        <v>0.98556030150479179</v>
+        <v>-100</v>
       </c>
       <c r="S15">
         <f>COUNTIF(K2:K100,"=Y")+COUNTIF(K2:K100,"=N")</f>
@@ -1637,14 +1536,14 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2">
         <v>0.50339999999999996</v>
@@ -1656,42 +1555,34 @@
         <v>185</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="9"/>
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="6"/>
+        <v>-30.663773584905663</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="7"/>
+        <v>41.531000000000013</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="L16" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="19">
         <f t="shared" si="11"/>
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="8"/>
-        <v>-30.663773584905663</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="9"/>
-        <v>41.531000000000013</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="L16" s="17">
-        <v>-100</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="13"/>
-        <v>1.3560560465058212E-2</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="15"/>
-        <v>0.99912086196984995</v>
+        <v>37.735849056603776</v>
       </c>
       <c r="S16">
         <f>20/38</f>
@@ -1699,14 +1590,14 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2">
         <v>0.70809999999999995</v>
@@ -1718,51 +1609,43 @@
         <v>100</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0.70809999999999995</v>
       </c>
       <c r="H17" s="3">
+        <f t="shared" si="6"/>
+        <v>21.388571428571424</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="7"/>
+        <v>-41.62</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="8"/>
-        <v>21.388571428571424</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="9"/>
-        <v>-41.62</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="10"/>
         <v>Y</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="9">
         <f>100^2/-E17</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="M17" s="17">
-        <f t="shared" si="12"/>
+      <c r="M17" s="9">
+        <f t="shared" si="10"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="13"/>
-        <v>8.791380301499598E-4</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="15"/>
-        <v>0.99999999999999989</v>
+      <c r="N17" s="19">
+        <f t="shared" si="11"/>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1777,39 +1660,43 @@
         <v>115</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="9"/>
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.4349999999999881</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="7"/>
+        <v>-14.086000000000013</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="8"/>
+        <v>N</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
         <f t="shared" si="11"/>
-        <v>0.60040000000000004</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="8"/>
-        <v>-2.4349999999999881</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="9"/>
-        <v>-14.086000000000013</v>
-      </c>
-      <c r="J18" s="24" t="s">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2">
         <v>0.80830000000000002</v>
@@ -1821,38 +1708,42 @@
         <v>800</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="9"/>
+        <v>0.80830000000000002</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="6"/>
+        <v>-15.640305676855894</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="7"/>
+        <v>72.529999999999987</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="10"/>
+        <v>4.3668122270742362</v>
+      </c>
+      <c r="N19" s="19">
         <f t="shared" si="11"/>
-        <v>0.80830000000000002</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="8"/>
-        <v>-15.640305676855894</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="9"/>
-        <v>72.529999999999987</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="L19" s="17">
-        <v>-100</v>
-      </c>
-      <c r="M19" s="17">
-        <f t="shared" si="12"/>
         <v>4.3668122270742362</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1867,214 +1758,209 @@
         <v>175</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="9"/>
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="6"/>
+        <v>-16.045306122448981</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="7"/>
+        <v>11.045000000000009</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
         <f t="shared" si="11"/>
-        <v>0.59619999999999995</v>
-      </c>
-      <c r="H20" s="3">
+        <v>40.816326530612244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.7843</v>
+      </c>
+      <c r="E21" s="21">
+        <v>-320</v>
+      </c>
+      <c r="F21" s="21">
+        <v>220</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="9"/>
+        <v>0.7843</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="6"/>
+        <v>2.9393750000000018</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="7"/>
+        <v>-30.976000000000013</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="8"/>
-        <v>-16.045306122448981</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="9"/>
-        <v>11.045000000000009</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" t="str">
+        <v>Y</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9">
         <f t="shared" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.7843</v>
-      </c>
-      <c r="E21" s="14">
-        <v>-320</v>
-      </c>
-      <c r="F21" s="14">
-        <v>220</v>
-      </c>
-      <c r="G21" s="15">
+        <v>31.25</v>
+      </c>
+      <c r="N21" s="19">
         <f t="shared" si="11"/>
-        <v>0.7843</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="8"/>
-        <v>2.9393750000000018</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="9"/>
-        <v>-30.976000000000013</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="10"/>
-        <v>Y</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17">
-        <f t="shared" si="12"/>
         <v>31.25</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="18">
+      <c r="A22" s="15"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="10">
         <f>SUM(L12:L21)</f>
         <v>138.35164835164835</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="10">
         <f>SUM(M12:M21)</f>
         <v>210.99548760574962</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="26">
+        <f>SUM(N12:N21)</f>
+        <v>-10.452336807034371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="M23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="20"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>0.50339999999999996</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>-130</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <f>100^2/105</f>
         <v>95.238095238095241</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="7">
         <f>IF(E24&lt;0,D24,1-D24)</f>
         <v>0.50339999999999996</v>
       </c>
-      <c r="H24" s="12">
-        <f t="shared" ref="H24:H29" si="16">G24*100*100/-E24+(1-G24)*-100</f>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24:H29" si="12">G24*100*100/-E24+(1-G24)*-100</f>
         <v>-10.93692307692308</v>
       </c>
-      <c r="I24" s="12">
-        <f t="shared" ref="I24:I29" si="17">(1-G24)*100*F24/100+G24*-100</f>
+      <c r="I24" s="8">
+        <f t="shared" ref="I24:I29" si="13">(1-G24)*100*F24/100+G24*-100</f>
         <v>-3.0447619047618986</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="10" t="str">
-        <f t="shared" ref="K24:K29" si="18">IF(C24=J24,"Y","N")</f>
+      <c r="K24" s="6" t="str">
+        <f t="shared" ref="K24:K29" si="14">IF(C24=J24,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9">
         <f>IF(D24&gt;0.65, IF(K24="Y",100^2/-E24, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N24">
-        <f>COUNTIF(M24:M29, "&lt;&gt;0")</f>
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <f>_xlfn.BINOM.DIST(N24,N$24,AVERAGEIF(D$24:D$29, "&gt;0.65"), FALSE)</f>
-        <v>0.4244960343488749</v>
-      </c>
-      <c r="P24">
-        <f>O24</f>
-        <v>0.4244960343488749</v>
+      <c r="N24" s="19">
+        <f>IF(K24="Y",IF(D24&gt;0.5,100^2/-E24,F24),-100)</f>
+        <v>-100</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>0.7218</v>
@@ -2086,50 +1972,42 @@
         <v>155</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" ref="G25:G29" si="19">IF(E25&lt;0,D25,1-D25)</f>
+        <f t="shared" ref="G25:G29" si="15">IF(E25&lt;0,D25,1-D25)</f>
         <v>0.7218</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>4.9890909090909119</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-29.059000000000005</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="16" t="s">
         <v>6</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17">
-        <f t="shared" ref="M25:M29" si="20">IF(D25&gt;0.65, IF(K25="Y",100^2/-E25, -100), 0)</f>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9">
+        <f t="shared" ref="M25:M29" si="16">IF(D25&gt;0.65, IF(K25="Y",100^2/-E25, -100), 0)</f>
         <v>-100</v>
       </c>
-      <c r="N25">
-        <f>N24-1</f>
-        <v>2</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ref="O25:O27" si="21">_xlfn.BINOM.DIST(N25,N$24,AVERAGEIF(D$24:D$29, "&gt;0.65"), FALSE)</f>
-        <v>0.42099410445337504</v>
-      </c>
-      <c r="P25">
-        <f>O25+P24</f>
-        <v>0.84549013880224999</v>
+      <c r="N25" s="19">
+        <f t="shared" ref="N25:N30" si="17">IF(K25="Y",IF(D25&gt;0.5,100^2/-E25,F25),-100)</f>
+        <v>-100</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2">
@@ -2142,53 +2020,45 @@
         <v>130</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.64419999999999999</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.20888888888889312</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-18.166000000000004</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="9">
         <f>100^2/180</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="M26" s="17">
-        <f t="shared" si="20"/>
+      <c r="M26" s="9">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N26">
-        <f t="shared" ref="N26:N29" si="22">N25-1</f>
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="21"/>
-        <v>0.13917368804662508</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P29" si="23">O26+P25</f>
-        <v>0.9846638268488751</v>
+      <c r="N26" s="19">
+        <f t="shared" si="17"/>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2">
@@ -2201,54 +2071,46 @@
         <v>130</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.78129999999999999</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>22.775714285714283</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>-49.698999999999998</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="9">
         <f>100^2/175</f>
         <v>57.142857142857146</v>
       </c>
-      <c r="M27" s="17">
-        <f t="shared" si="20"/>
+      <c r="M27" s="9">
+        <f t="shared" si="16"/>
         <v>57.142857142857146</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="21"/>
-        <v>1.5336173151125019E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="23"/>
-        <v>1.0000000000000002</v>
+      <c r="N27" s="19">
+        <f t="shared" si="17"/>
+        <v>57.142857142857146</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="2">
         <f>100%-67.69%</f>
@@ -2265,38 +2127,39 @@
         <v>0.32310000000000005</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>-45.407241379310342</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="13"/>
+        <v>38.764499999999998</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="14"/>
+        <v>N</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M28" s="9">
+        <v>-100</v>
+      </c>
+      <c r="N28" s="19">
         <f t="shared" si="17"/>
-        <v>38.764499999999998</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="18"/>
-        <v>N</v>
-      </c>
-      <c r="L28" s="17">
         <v>-100</v>
       </c>
-      <c r="M28" s="17">
-        <v>-100</v>
-      </c>
-      <c r="N28" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="29" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="2">
@@ -2309,149 +2172,159 @@
         <v>130</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.62570000000000003</v>
       </c>
       <c r="H29" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.6083783783783758</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="13"/>
+        <v>-13.911000000000001</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="14"/>
+        <v>N</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9">
         <f t="shared" si="16"/>
-        <v>-3.6083783783783758</v>
-      </c>
-      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="19">
         <f t="shared" si="17"/>
-        <v>-13.911000000000001</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="18"/>
-        <v>N</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="18">
+      <c r="A30" s="15"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="10">
         <f>SUM(L24:L29)</f>
         <v>12.69841269841271</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="10">
         <f>SUM(M24:M29)</f>
         <v>-142.85714285714286</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="27">
+        <f>SUM(N24:N29)</f>
+        <v>-287.30158730158735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="M31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7">
         <v>0.52066999999999997</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>-295</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>210</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="7">
         <f>IF(E32&lt;0,D32,1-D32)</f>
         <v>0.52066999999999997</v>
       </c>
-      <c r="H32" s="12">
-        <f t="shared" ref="H32:H37" si="24">G32*100*100/-E32+(1-G32)*-100</f>
+      <c r="H32" s="8">
+        <f t="shared" ref="H32:H37" si="18">G32*100*100/-E32+(1-G32)*-100</f>
         <v>-30.283169491525435</v>
       </c>
-      <c r="I32" s="12">
-        <f t="shared" ref="I32:I37" si="25">(1-G32)*100*F32/100+G32*-100</f>
+      <c r="I32" s="8">
+        <f t="shared" ref="I32:I37" si="19">(1-G32)*100*F32/100+G32*-100</f>
         <v>48.592300000000023</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="10" t="str">
-        <f t="shared" ref="K32:K37" si="26">IF(C32=J32,"Y","N")</f>
+      <c r="J32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="6" t="str">
+        <f t="shared" ref="K32:K37" si="20">IF(C32=J32,"Y","N")</f>
         <v>Y</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="9">
         <v>-100</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="9">
         <f>IF(D32&gt;0.65, IF(K32="Y",100^2/-E32, -100), 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>29</v>
+      <c r="N32" s="19">
+        <f>IF(K32="Y",IF(D32&gt;0.5,100^2/-E32,F32),-100)</f>
+        <v>33.898305084745765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="2">
@@ -2464,41 +2337,45 @@
         <v>600</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" ref="G33:G35" si="27">IF(E33&lt;0,D33,1-D33)</f>
+        <f t="shared" ref="G33:G35" si="21">IF(E33&lt;0,D33,1-D33)</f>
         <v>0.80020000000000002</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-13.654308300395254</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>39.859999999999985</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Y</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="9">
         <v>-100</v>
       </c>
-      <c r="M33" s="17">
-        <f t="shared" ref="M33:M37" si="28">IF(D33&gt;0.65, IF(K33="Y",100^2/-E33, -100), 0)</f>
+      <c r="M33" s="9">
+        <f t="shared" ref="M33:M37" si="22">IF(D33&gt;0.65, IF(K33="Y",100^2/-E33, -100), 0)</f>
         <v>7.9051383399209483</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
+      <c r="N33" s="19">
+        <f t="shared" ref="N33:N37" si="23">IF(K33="Y",IF(D33&gt;0.5,100^2/-E33,F33),-100)</f>
+        <v>7.9051383399209483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>0.71830000000000005</v>
@@ -2510,38 +2387,42 @@
         <v>250</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.71830000000000005</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-8.7564864864864802</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>-1.4050000000000011</v>
       </c>
-      <c r="J34" s="24" t="s">
-        <v>41</v>
+      <c r="J34" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Y</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17">
-        <f t="shared" si="28"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9">
+        <f t="shared" si="22"/>
         <v>27.027027027027028</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="N34" s="19">
+        <f t="shared" si="23"/>
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2">
@@ -2554,41 +2435,45 @@
         <v>190</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.61850000000000005</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-15.24259259259258</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>10.634999999999977</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="16" t="s">
         <v>8</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Y</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="9">
         <v>-100</v>
       </c>
-      <c r="M35" s="17">
-        <f t="shared" si="28"/>
+      <c r="M35" s="9">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>42</v>
+      <c r="N35" s="19">
+        <f t="shared" si="23"/>
+        <v>37.037037037037038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D36" s="2">
         <v>0.58250000000000002</v>
@@ -2604,37 +2489,41 @@
         <v>0.58250000000000002</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>-19.346153846153847</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>18.987499999999997</v>
       </c>
-      <c r="J36" s="24" t="s">
-        <v>42</v>
+      <c r="J36" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Y</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="9">
         <v>-100</v>
       </c>
-      <c r="M36" s="17">
-        <f t="shared" si="28"/>
+      <c r="M36" s="9">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="N36" s="19">
+        <f t="shared" si="23"/>
+        <v>38.46153846153846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>0.62570000000000003</v>
@@ -2647,283 +2536,310 @@
         <v>86.956521739130437</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" ref="G37:G38" si="29">IF(E37&lt;0,D37,1-D37)</f>
+        <f t="shared" ref="G37:G38" si="24">IF(E37&lt;0,D37,1-D37)</f>
         <v>0.62570000000000003</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>14.711666666666666</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>-30.022173913043481</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>36</v>
+      <c r="J37" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>Y</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="9">
         <v>14.71</v>
       </c>
-      <c r="M37" s="17">
-        <f t="shared" si="28"/>
+      <c r="M37" s="9">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="18">
+      <c r="N37" s="19">
+        <f t="shared" si="23"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="10">
         <f>SUM(L32:L37)</f>
         <v>-385.29</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="10">
         <f>SUM(M32:M37)</f>
         <v>34.932165366947977</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="N38" s="27">
+        <f>SUM(N32:N37)</f>
+        <v>227.66237928360255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="19" t="s">
+      <c r="K39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="M39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="7">
         <v>0.59309999999999996</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <v>-120</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="6">
         <f>100^2/110</f>
         <v>90.909090909090907</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="7">
         <f>IF(E40&lt;0,D40,1-D40)</f>
         <v>0.59309999999999996</v>
       </c>
-      <c r="H40" s="12">
-        <f t="shared" ref="H40:H47" si="30">G40*100*100/-E40+(1-G40)*-100</f>
+      <c r="H40" s="8">
+        <f t="shared" ref="H40:H47" si="25">G40*100*100/-E40+(1-G40)*-100</f>
         <v>8.7349999999999852</v>
       </c>
-      <c r="I40" s="12">
-        <f t="shared" ref="I40:I47" si="31">(1-G40)*100*F40/100+G40*-100</f>
+      <c r="I40" s="8">
+        <f t="shared" ref="I40:I47" si="26">(1-G40)*100*F40/100+G40*-100</f>
         <v>-22.319090909090903</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="str">
-        <f t="shared" ref="K40:K47" si="32">IF(C40=J40,"Y","N")</f>
+      <c r="J40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="6" t="str">
+        <f t="shared" ref="K40:K47" si="27">IF(C40=J40,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="L40" s="17">
-        <v>-100</v>
-      </c>
-      <c r="M40" s="17">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9">
         <f>IF(D40&gt;0.65, IF(K40="Y",100^2/-E40, -100), 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
+      <c r="N40" s="19">
+        <f>IF(K40="Y",IF(D40&gt;0.5,100^2/-E40,F40),-100)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>0.62780000000000002</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="16">
         <v>-150</v>
       </c>
       <c r="F41">
         <v>110</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:G43" si="33">IF(E41&lt;0,D41,1-D41)</f>
+        <f t="shared" ref="G41:G43" si="28">IF(E41&lt;0,D41,1-D41)</f>
         <v>0.62780000000000002</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>4.6333333333333329</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>-21.838000000000001</v>
       </c>
-      <c r="J41" s="24"/>
+      <c r="J41" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="K41" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L41" s="17">
-        <v>-100</v>
-      </c>
-      <c r="M41" s="17">
-        <f t="shared" ref="M41:M47" si="34">IF(D41&gt;0.65, IF(K41="Y",100^2/-E41, -100), 0)</f>
+        <f t="shared" si="27"/>
+        <v>Y</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9">
+        <f t="shared" ref="M41:M47" si="29">IF(D41&gt;0.65, IF(K41="Y",100^2/-E41, -100), 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>40</v>
+      <c r="N41" s="19">
+        <f t="shared" ref="N41:N47" si="30">IF(K41="Y",IF(D41&gt;0.5,100^2/-E41,F41),-100)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>40</v>
+      <c r="C42" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D42" s="2">
         <v>0.83609999999999995</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="16">
         <v>-465</v>
       </c>
       <c r="F42">
         <v>300</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0.83609999999999995</v>
       </c>
       <c r="H42" s="3">
+        <f t="shared" si="25"/>
+        <v>1.5906451612903183</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="26"/>
+        <v>-34.439999999999991</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="27"/>
+        <v>Y</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9">
+        <f t="shared" si="29"/>
+        <v>21.50537634408602</v>
+      </c>
+      <c r="N42" s="19">
         <f t="shared" si="30"/>
-        <v>1.5906451612903183</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="31"/>
-        <v>-34.439999999999991</v>
-      </c>
-      <c r="J42" s="24"/>
-      <c r="K42" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17">
-        <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>38</v>
+        <v>21.50537634408602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>38</v>
+      <c r="C43" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D43" s="2">
         <v>0.71930000000000005</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="16">
         <v>-390</v>
       </c>
       <c r="F43">
         <v>260</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0.71930000000000005</v>
       </c>
       <c r="H43" s="3">
+        <f t="shared" si="25"/>
+        <v>-9.6264102564102458</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="26"/>
+        <v>1.0519999999999783</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="27"/>
+        <v>N</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9">
+        <f t="shared" si="29"/>
+        <v>-100</v>
+      </c>
+      <c r="N43" s="19">
         <f t="shared" si="30"/>
-        <v>-9.6264102564102458</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="31"/>
-        <v>1.0519999999999783</v>
-      </c>
-      <c r="J43" s="24"/>
-      <c r="K43" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L43" s="17">
         <v>-100</v>
       </c>
-      <c r="M43" s="17">
-        <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2">
         <v>0.83819999999999995</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="16">
         <v>-2560</v>
       </c>
       <c r="F44">
@@ -2934,174 +2850,202 @@
         <v>0.83819999999999995</v>
       </c>
       <c r="H44" s="3">
+        <f t="shared" si="25"/>
+        <v>-12.905781250000008</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="26"/>
+        <v>51.283000000000072</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="27"/>
+        <v>Y</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="29"/>
+        <v>3.90625</v>
+      </c>
+      <c r="N44" s="19">
         <f t="shared" si="30"/>
-        <v>-12.905781250000008</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="31"/>
-        <v>51.283000000000072</v>
-      </c>
-      <c r="J44" s="24"/>
-      <c r="K44" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L44" s="17">
-        <v>-100</v>
-      </c>
-      <c r="M44" s="17">
-        <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2">
         <f>100%-52.17%</f>
         <v>0.47829999999999995</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="16">
         <v>-195</v>
       </c>
       <c r="F45">
         <v>140</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" ref="G45:G47" si="35">IF(E45&lt;0,D45,1-D45)</f>
+        <f t="shared" ref="G45:G47" si="31">IF(E45&lt;0,D45,1-D45)</f>
         <v>0.47829999999999995</v>
       </c>
       <c r="H45" s="3">
+        <f t="shared" si="25"/>
+        <v>-27.641794871794872</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="26"/>
+        <v>25.207999999999998</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="27"/>
+        <v>Y</v>
+      </c>
+      <c r="L45" s="9">
+        <v>140</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="19">
         <f t="shared" si="30"/>
-        <v>-27.641794871794872</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="31"/>
-        <v>25.207999999999998</v>
-      </c>
-      <c r="J45" s="24"/>
-      <c r="K45" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L45" s="17">
-        <v>14.71</v>
-      </c>
-      <c r="M45" s="17">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>42</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>42</v>
+      <c r="C46" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D46" s="2">
         <v>0.81610000000000005</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="16">
         <v>-785</v>
       </c>
       <c r="F46">
         <v>445</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.81610000000000005</v>
       </c>
       <c r="H46" s="3">
+        <f t="shared" si="25"/>
+        <v>-7.9938216560509492</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="26"/>
+        <v>0.22549999999996828</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="27"/>
+        <v>Y</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9">
+        <f t="shared" si="29"/>
+        <v>12.738853503184714</v>
+      </c>
+      <c r="N46" s="19">
         <f t="shared" si="30"/>
-        <v>-7.9938216560509492</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="31"/>
-        <v>0.22549999999996828</v>
-      </c>
-      <c r="J46" s="24"/>
-      <c r="K46" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17">
-        <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>43</v>
+        <v>12.738853503184714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>43</v>
+      <c r="C47" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D47" s="2">
         <v>0.66210000000000002</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="16">
         <v>-330</v>
       </c>
       <c r="F47">
         <v>225</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.66210000000000002</v>
       </c>
       <c r="H47" s="3">
+        <f t="shared" si="25"/>
+        <v>-13.726363636363633</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="26"/>
+        <v>9.8174999999999955</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="27"/>
+        <v>Y</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9">
+        <f t="shared" si="29"/>
+        <v>30.303030303030305</v>
+      </c>
+      <c r="N47" s="19">
         <f t="shared" si="30"/>
-        <v>-13.726363636363633</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="31"/>
-        <v>9.8174999999999955</v>
-      </c>
-      <c r="J47" s="24"/>
-      <c r="K47" t="str">
-        <f t="shared" si="32"/>
-        <v>N</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17">
-        <f t="shared" si="34"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="18">
+        <v>30.303030303030305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="10">
         <f>SUM(L40:L45)</f>
-        <v>-385.29</v>
-      </c>
-      <c r="M48" s="18">
-        <f>SUM(M40:M45)</f>
-        <v>-300</v>
+        <v>40</v>
+      </c>
+      <c r="M48" s="10">
+        <f>SUM(M40:M47)</f>
+        <v>-31.546489849698965</v>
+      </c>
+      <c r="N48" s="27">
+        <f>SUM(N40:N47)</f>
+        <v>75.1201768169677</v>
       </c>
     </row>
   </sheetData>

--- a/ReturnsCalculations.xlsx
+++ b/ReturnsCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Documents/NBADataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C61FF9-7CD2-9549-B47F-EFF8A34C5A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B178EE6-5294-6143-A825-16D2DB641D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{0B0A54B6-9E21-F749-A70B-9633D2A512FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{0B0A54B6-9E21-F749-A70B-9633D2A512FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="47">
   <si>
     <t>Home Team</t>
   </si>
@@ -344,7 +344,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -361,35 +361,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -760,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B64B43-6E66-9D44-9537-2703A72D2A98}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N48" sqref="A48:N48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,10 +815,10 @@
       <c r="M1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1" t="s">
         <v>44</v>
@@ -888,18 +875,18 @@
         <f>IF(D2&gt;0.65, IF(K2="Y",100^2/-E2, -100), 0)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <f>IF(K2="Y",IF(D2&gt;0.5,100^2/-E2,F2),-100)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="16">
         <f>-166.67/300</f>
         <v>-0.55556666666666665</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="16">
         <f>97.46/500</f>
         <v>0.19491999999999998</v>
       </c>
@@ -947,18 +934,18 @@
         <f t="shared" ref="M3:M9" si="4">IF(D3&gt;0.65, IF(K3="Y",100^2/-E3, -100), 0)</f>
         <v>28.571428571428573</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <f t="shared" ref="N3:N9" si="5">IF(K3="Y",IF(D3&gt;0.5,100^2/-E3,F3),-100)</f>
         <v>28.571428571428573</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="16">
         <f>138.35/500</f>
         <v>0.2767</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="16">
         <f>211/500</f>
         <v>0.42199999999999999</v>
       </c>
@@ -1006,7 +993,7 @@
         <f t="shared" si="4"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <f t="shared" si="5"/>
         <v>22.222222222222221</v>
       </c>
@@ -1057,7 +1044,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <f t="shared" si="5"/>
         <v>-100</v>
       </c>
@@ -1108,7 +1095,7 @@
         <f t="shared" si="4"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <f t="shared" si="5"/>
         <v>33.333333333333336</v>
       </c>
@@ -1156,7 +1143,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <f t="shared" si="5"/>
         <v>-100</v>
       </c>
@@ -1204,7 +1191,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <f t="shared" si="5"/>
         <v>-100</v>
       </c>
@@ -1213,37 +1200,37 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>0.80610000000000004</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9">
         <v>-1000</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9">
         <v>535</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>0.80610000000000004</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>-11.328999999999997</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>23.126499999999979</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
@@ -1254,23 +1241,23 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="18">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="10">
         <f>SUM(L2:L9)</f>
         <v>-166.66666666666666</v>
@@ -1279,43 +1266,43 @@
         <f>SUM(M2:M9)</f>
         <v>97.460317460317469</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="22">
         <f>SUM(N2:N9)</f>
         <v>-202.53968253968253</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="12" t="s">
@@ -1324,7 +1311,7 @@
       <c r="M11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="20"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
@@ -1373,7 +1360,7 @@
         <f>IF(D12&gt;0.65, IF(K12="Y",100^2/-E12, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <f>IF(K12="Y",IF(D12&gt;0.5,100^2/-E12,F12),-100)</f>
         <v>-100</v>
       </c>
@@ -1410,7 +1397,7 @@
         <f t="shared" si="7"/>
         <v>-38.049999999999997</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" t="s">
         <v>31</v>
       </c>
       <c r="K13" t="str">
@@ -1425,7 +1412,7 @@
         <f t="shared" ref="M13:M21" si="10">IF(D13&gt;0.65, IF(K13="Y",100^2/-E13, -100), 0)</f>
         <v>76.92307692307692</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f t="shared" ref="N13:N21" si="11">IF(K13="Y",IF(D13&gt;0.5,100^2/-E13,F13),-100)</f>
         <v>76.92307692307692</v>
       </c>
@@ -1461,7 +1448,7 @@
         <f t="shared" si="7"/>
         <v>-29.929999999999978</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" t="s">
         <v>5</v>
       </c>
       <c r="K14" t="str">
@@ -1473,13 +1460,13 @@
         <f t="shared" si="10"/>
         <v>27.027027027027028</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f t="shared" si="11"/>
         <v>27.027027027027028</v>
       </c>
       <c r="S14">
-        <f>COUNTIF(K2:K100,"=Y")</f>
-        <v>26</v>
+        <f>COUNTIF(K2:K98,"=Y")</f>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1514,7 +1501,7 @@
         <f t="shared" si="7"/>
         <v>-12.97173913043477</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" t="s">
         <v>35</v>
       </c>
       <c r="K15" t="str">
@@ -1526,13 +1513,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <f t="shared" si="11"/>
         <v>-100</v>
       </c>
       <c r="S15">
-        <f>COUNTIF(K2:K100,"=Y")+COUNTIF(K2:K100,"=N")</f>
-        <v>38</v>
+        <f>COUNTIF(K2:K98,"=Y")+COUNTIF(K2:K98,"=N")</f>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1566,7 +1553,7 @@
         <f t="shared" si="7"/>
         <v>41.531000000000013</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" t="s">
         <v>37</v>
       </c>
       <c r="K16" t="str">
@@ -1580,7 +1567,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <f t="shared" si="11"/>
         <v>37.735849056603776</v>
       </c>
@@ -1620,7 +1607,7 @@
         <f t="shared" si="7"/>
         <v>-41.62</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="K17" t="str">
@@ -1635,7 +1622,7 @@
         <f t="shared" si="10"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f t="shared" si="11"/>
         <v>71.428571428571431</v>
       </c>
@@ -1671,7 +1658,7 @@
         <f t="shared" si="7"/>
         <v>-14.086000000000013</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" t="s">
         <v>40</v>
       </c>
       <c r="K18" t="str">
@@ -1683,7 +1670,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <f t="shared" si="11"/>
         <v>-100</v>
       </c>
@@ -1719,7 +1706,7 @@
         <f t="shared" si="7"/>
         <v>72.529999999999987</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" t="s">
         <v>41</v>
       </c>
       <c r="K19" t="str">
@@ -1733,7 +1720,7 @@
         <f t="shared" si="10"/>
         <v>4.3668122270742362</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <f t="shared" si="11"/>
         <v>4.3668122270742362</v>
       </c>
@@ -1769,7 +1756,7 @@
         <f t="shared" si="7"/>
         <v>11.045000000000009</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" t="s">
         <v>17</v>
       </c>
       <c r="K20" t="str">
@@ -1781,7 +1768,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <f t="shared" si="11"/>
         <v>40.816326530612244</v>
       </c>
@@ -1790,34 +1777,34 @@
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>0.7843</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21">
         <v>-320</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21">
         <v>220</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="9"/>
         <v>0.7843</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="3">
         <f t="shared" si="6"/>
         <v>2.9393750000000018</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="3">
         <f t="shared" si="7"/>
         <v>-30.976000000000013</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" t="s">
         <v>42</v>
       </c>
       <c r="K21" t="str">
@@ -1829,22 +1816,22 @@
         <f t="shared" si="10"/>
         <v>31.25</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <f t="shared" si="11"/>
         <v>31.25</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="15"/>
       <c r="L22" s="10">
         <f>SUM(L12:L21)</f>
@@ -1854,43 +1841,43 @@
         <f>SUM(M12:M21)</f>
         <v>210.99548760574962</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="22">
         <f>SUM(N12:N21)</f>
         <v>-10.452336807034371</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="12" t="s">
@@ -1899,7 +1886,7 @@
       <c r="M23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="20"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -1947,7 +1934,7 @@
         <f>IF(D24&gt;0.65, IF(K24="Y",100^2/-E24, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="18">
         <f>IF(K24="Y",IF(D24&gt;0.5,100^2/-E24,F24),-100)</f>
         <v>-100</v>
       </c>
@@ -1959,7 +1946,7 @@
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="2">
@@ -1983,7 +1970,7 @@
         <f t="shared" si="13"/>
         <v>-29.059000000000005</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" t="s">
         <v>6</v>
       </c>
       <c r="K25" t="str">
@@ -1995,8 +1982,8 @@
         <f t="shared" ref="M25:M29" si="16">IF(D25&gt;0.65, IF(K25="Y",100^2/-E25, -100), 0)</f>
         <v>-100</v>
       </c>
-      <c r="N25" s="19">
-        <f t="shared" ref="N25:N30" si="17">IF(K25="Y",IF(D25&gt;0.5,100^2/-E25,F25),-100)</f>
+      <c r="N25" s="18">
+        <f t="shared" ref="N25:N29" si="17">IF(K25="Y",IF(D25&gt;0.5,100^2/-E25,F25),-100)</f>
         <v>-100</v>
       </c>
     </row>
@@ -2007,7 +1994,7 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2">
@@ -2031,7 +2018,7 @@
         <f t="shared" si="13"/>
         <v>-18.166000000000004</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" t="s">
         <v>12</v>
       </c>
       <c r="K26" t="str">
@@ -2046,7 +2033,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="18">
         <f t="shared" si="17"/>
         <v>55.555555555555557</v>
       </c>
@@ -2058,7 +2045,7 @@
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2">
@@ -2082,7 +2069,7 @@
         <f t="shared" si="13"/>
         <v>-49.698999999999998</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" t="s">
         <v>10</v>
       </c>
       <c r="K27" t="str">
@@ -2097,7 +2084,7 @@
         <f t="shared" si="16"/>
         <v>57.142857142857146</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="18">
         <f t="shared" si="17"/>
         <v>57.142857142857146</v>
       </c>
@@ -2109,7 +2096,7 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2">
@@ -2134,7 +2121,7 @@
         <f t="shared" si="13"/>
         <v>38.764499999999998</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" t="s">
         <v>11</v>
       </c>
       <c r="K28" t="str">
@@ -2147,7 +2134,7 @@
       <c r="M28" s="9">
         <v>-100</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="18">
         <f t="shared" si="17"/>
         <v>-100</v>
       </c>
@@ -2159,7 +2146,7 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="2">
@@ -2183,7 +2170,7 @@
         <f t="shared" si="13"/>
         <v>-13.911000000000001</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" t="s">
         <v>9</v>
       </c>
       <c r="K29" t="str">
@@ -2195,22 +2182,22 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="18">
         <f t="shared" si="17"/>
         <v>-100</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="15"/>
       <c r="L30" s="10">
         <f>SUM(L24:L29)</f>
@@ -2220,43 +2207,43 @@
         <f>SUM(M24:M29)</f>
         <v>-142.85714285714286</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="22">
         <f>SUM(N24:N29)</f>
         <v>-287.30158730158735</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="12" t="s">
@@ -2265,7 +2252,7 @@
       <c r="M31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N31" s="19"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -2312,7 +2299,7 @@
         <f>IF(D32&gt;0.65, IF(K32="Y",100^2/-E32, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="18">
         <f>IF(K32="Y",IF(D32&gt;0.5,100^2/-E32,F32),-100)</f>
         <v>33.898305084745765</v>
       </c>
@@ -2324,7 +2311,7 @@
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="2">
@@ -2348,7 +2335,7 @@
         <f t="shared" si="19"/>
         <v>39.859999999999985</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" t="s">
         <v>5</v>
       </c>
       <c r="K33" t="str">
@@ -2362,7 +2349,7 @@
         <f t="shared" ref="M33:M37" si="22">IF(D33&gt;0.65, IF(K33="Y",100^2/-E33, -100), 0)</f>
         <v>7.9051383399209483</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <f t="shared" ref="N33:N37" si="23">IF(K33="Y",IF(D33&gt;0.5,100^2/-E33,F33),-100)</f>
         <v>7.9051383399209483</v>
       </c>
@@ -2374,7 +2361,7 @@
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="2">
@@ -2398,7 +2385,7 @@
         <f t="shared" si="19"/>
         <v>-1.4050000000000011</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" t="s">
         <v>40</v>
       </c>
       <c r="K34" t="str">
@@ -2410,7 +2397,7 @@
         <f t="shared" si="22"/>
         <v>27.027027027027028</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="18">
         <f t="shared" si="23"/>
         <v>27.027027027027028</v>
       </c>
@@ -2422,7 +2409,7 @@
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2">
@@ -2446,7 +2433,7 @@
         <f t="shared" si="19"/>
         <v>10.634999999999977</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" t="s">
         <v>8</v>
       </c>
       <c r="K35" t="str">
@@ -2460,7 +2447,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="18">
         <f t="shared" si="23"/>
         <v>37.037037037037038</v>
       </c>
@@ -2472,7 +2459,7 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="2">
@@ -2496,7 +2483,7 @@
         <f t="shared" si="19"/>
         <v>18.987499999999997</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" t="s">
         <v>41</v>
       </c>
       <c r="K36" t="str">
@@ -2510,7 +2497,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="18">
         <f t="shared" si="23"/>
         <v>38.46153846153846</v>
       </c>
@@ -2522,7 +2509,7 @@
       <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="2">
@@ -2536,7 +2523,7 @@
         <v>86.956521739130437</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" ref="G37:G38" si="24">IF(E37&lt;0,D37,1-D37)</f>
+        <f t="shared" ref="G37" si="24">IF(E37&lt;0,D37,1-D37)</f>
         <v>0.62570000000000003</v>
       </c>
       <c r="H37" s="3">
@@ -2547,7 +2534,7 @@
         <f t="shared" si="19"/>
         <v>-30.022173913043481</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" t="s">
         <v>35</v>
       </c>
       <c r="K37" t="str">
@@ -2561,22 +2548,22 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N37" s="18">
         <f t="shared" si="23"/>
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="15"/>
       <c r="L38" s="10">
         <f>SUM(L32:L37)</f>
@@ -2586,43 +2573,43 @@
         <f>SUM(M32:M37)</f>
         <v>34.932165366947977</v>
       </c>
-      <c r="N38" s="27">
+      <c r="N38" s="22">
         <f>SUM(N32:N37)</f>
         <v>227.66237928360255</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="12" t="s">
@@ -2631,7 +2618,7 @@
       <c r="M39" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N39" s="19"/>
+      <c r="N39" s="18"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -2677,7 +2664,7 @@
         <f>IF(D40&gt;0.65, IF(K40="Y",100^2/-E40, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="18">
         <f>IF(K40="Y",IF(D40&gt;0.5,100^2/-E40,F40),-100)</f>
         <v>-100</v>
       </c>
@@ -2689,13 +2676,13 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>0.62780000000000002</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41">
         <v>-150</v>
       </c>
       <c r="F41">
@@ -2713,7 +2700,7 @@
         <f t="shared" si="26"/>
         <v>-21.838000000000001</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" t="s">
         <v>33</v>
       </c>
       <c r="K41" t="str">
@@ -2725,7 +2712,7 @@
         <f t="shared" ref="M41:M47" si="29">IF(D41&gt;0.65, IF(K41="Y",100^2/-E41, -100), 0)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="18">
         <f t="shared" ref="N41:N47" si="30">IF(K41="Y",IF(D41&gt;0.5,100^2/-E41,F41),-100)</f>
         <v>66.666666666666671</v>
       </c>
@@ -2737,13 +2724,13 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="2">
         <v>0.83609999999999995</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42">
         <v>-465</v>
       </c>
       <c r="F42">
@@ -2761,7 +2748,7 @@
         <f t="shared" si="26"/>
         <v>-34.439999999999991</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" t="s">
         <v>39</v>
       </c>
       <c r="K42" t="str">
@@ -2773,7 +2760,7 @@
         <f t="shared" si="29"/>
         <v>21.50537634408602</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="18">
         <f t="shared" si="30"/>
         <v>21.50537634408602</v>
       </c>
@@ -2785,13 +2772,13 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="2">
         <v>0.71930000000000005</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43">
         <v>-390</v>
       </c>
       <c r="F43">
@@ -2809,7 +2796,7 @@
         <f t="shared" si="26"/>
         <v>1.0519999999999783</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" t="s">
         <v>12</v>
       </c>
       <c r="K43" t="str">
@@ -2821,7 +2808,7 @@
         <f t="shared" si="29"/>
         <v>-100</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="18">
         <f t="shared" si="30"/>
         <v>-100</v>
       </c>
@@ -2833,13 +2820,13 @@
       <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2">
         <v>0.83819999999999995</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44">
         <v>-2560</v>
       </c>
       <c r="F44">
@@ -2857,7 +2844,7 @@
         <f t="shared" si="26"/>
         <v>51.283000000000072</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" t="s">
         <v>13</v>
       </c>
       <c r="K44" t="str">
@@ -2871,7 +2858,7 @@
         <f t="shared" si="29"/>
         <v>3.90625</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="18">
         <f t="shared" si="30"/>
         <v>3.90625</v>
       </c>
@@ -2883,14 +2870,14 @@
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2">
         <f>100%-52.17%</f>
         <v>0.47829999999999995</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45">
         <v>-195</v>
       </c>
       <c r="F45">
@@ -2908,7 +2895,7 @@
         <f t="shared" si="26"/>
         <v>25.207999999999998</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" t="s">
         <v>7</v>
       </c>
       <c r="K45" t="str">
@@ -2922,7 +2909,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N45" s="18">
         <f t="shared" si="30"/>
         <v>140</v>
       </c>
@@ -2934,13 +2921,13 @@
       <c r="B46" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" s="2">
         <v>0.81610000000000005</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46">
         <v>-785</v>
       </c>
       <c r="F46">
@@ -2958,7 +2945,7 @@
         <f t="shared" si="26"/>
         <v>0.22549999999996828</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" t="s">
         <v>41</v>
       </c>
       <c r="K46" t="str">
@@ -2970,7 +2957,7 @@
         <f t="shared" si="29"/>
         <v>12.738853503184714</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="18">
         <f t="shared" si="30"/>
         <v>12.738853503184714</v>
       </c>
@@ -2982,13 +2969,13 @@
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="2">
         <v>0.66210000000000002</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47">
         <v>-330</v>
       </c>
       <c r="F47">
@@ -3006,7 +2993,7 @@
         <f t="shared" si="26"/>
         <v>9.8174999999999955</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" t="s">
         <v>42</v>
       </c>
       <c r="K47" t="str">
@@ -3018,22 +3005,22 @@
         <f t="shared" si="29"/>
         <v>30.303030303030305</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="18">
         <f t="shared" si="30"/>
         <v>30.303030303030305</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
       <c r="K48" s="15"/>
       <c r="L48" s="10">
         <f>SUM(L40:L45)</f>
@@ -3043,13 +3030,388 @@
         <f>SUM(M40:M47)</f>
         <v>-31.546489849698965</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="22">
         <f>SUM(N40:N47)</f>
         <v>75.1201768169677</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="18"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="E50" s="6">
+        <v>-615</v>
+      </c>
+      <c r="F50" s="6">
+        <v>370</v>
+      </c>
+      <c r="G50" s="7">
+        <f>IF(E50&lt;0,D50,1-D50)</f>
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" ref="H50:H55" si="32">G50*100*100/-E50+(1-G50)*-100</f>
+        <v>-22.361463414634152</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" ref="I50:I55" si="33">(1-G50)*100*F50/100+G50*-100</f>
+        <v>56.134000000000015</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="6" t="str">
+        <f t="shared" ref="K50:K55" si="34">IF(C50=J50,"Y","N")</f>
+        <v>Y</v>
+      </c>
+      <c r="L50" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M50" s="9">
+        <f>IF(D50&gt;0.65, IF(K50="Y",100^2/-E50, -100), 0)</f>
+        <v>16.260162601626018</v>
+      </c>
+      <c r="N50" s="18">
+        <f>IF(K50="Y",IF(D50&gt;0.5,100^2/-E50,F50),-100)</f>
+        <v>16.260162601626018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="E51">
+        <v>-175</v>
+      </c>
+      <c r="F51">
+        <v>125</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ref="G51:G53" si="35">IF(E51&lt;0,D51,1-D51)</f>
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="32"/>
+        <v>-21.192857142857157</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="33"/>
+        <v>12.162500000000016</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="34"/>
+        <v>N</v>
+      </c>
+      <c r="L51" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" ref="M51:M55" si="36">IF(D51&gt;0.65, IF(K51="Y",100^2/-E51, -100), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="18">
+        <f t="shared" ref="N51:N55" si="37">IF(K51="Y",IF(D51&gt;0.5,100^2/-E51,F51),-100)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="E52">
+        <v>-270</v>
+      </c>
+      <c r="F52">
+        <v>190</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="35"/>
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="32"/>
+        <v>-16.037407407407404</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="33"/>
+        <v>12.317</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="34"/>
+        <v>Y</v>
+      </c>
+      <c r="L52" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="18">
+        <f t="shared" si="37"/>
+        <v>37.037037037037038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="E53">
+        <v>-755</v>
+      </c>
+      <c r="F53">
+        <v>430</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="35"/>
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="32"/>
+        <v>-25.462119205298009</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="33"/>
+        <v>81.153999999999982</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="34"/>
+        <v>Y</v>
+      </c>
+      <c r="L53" s="9">
+        <v>-100</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="36"/>
+        <v>13.245033112582782</v>
+      </c>
+      <c r="N53" s="18">
+        <f t="shared" si="37"/>
+        <v>13.245033112582782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="E54">
+        <v>-2770</v>
+      </c>
+      <c r="F54">
+        <v>860</v>
+      </c>
+      <c r="G54" s="2">
+        <f>IF(E54&lt;0,D54,1-D54)</f>
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="32"/>
+        <v>-15.267653429602891</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="33"/>
+        <v>74.912000000000035</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="34"/>
+        <v>N</v>
+      </c>
+      <c r="L54" s="9">
+        <v>860</v>
+      </c>
+      <c r="M54" s="9">
+        <f t="shared" si="36"/>
+        <v>-100</v>
+      </c>
+      <c r="N54" s="18">
+        <f t="shared" si="37"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="E55">
+        <v>-165</v>
+      </c>
+      <c r="F55">
+        <v>125</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" ref="G55" si="38">IF(E55&lt;0,D55,1-D55)</f>
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="32"/>
+        <v>-4.9854545454545445</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="33"/>
+        <v>-8.1100000000000136</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="34"/>
+        <v>Y</v>
+      </c>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="18">
+        <f t="shared" si="37"/>
+        <v>60.606060606060609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="10">
+        <f>SUM(L50:L55)</f>
+        <v>460</v>
+      </c>
+      <c r="M56" s="10">
+        <f>SUM(M50:M55)</f>
+        <v>-70.494804285791204</v>
+      </c>
+      <c r="N56" s="22">
+        <f>SUM(N50:N55)</f>
+        <v>-72.851706642693543</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0.5"/>
@@ -3059,8 +3421,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D37">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D47">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D55">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H2:I9">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3072,7 +3464,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:I21">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:I29">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I37">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:I47">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:I55">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3084,10 +3524,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Y">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K2)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:K21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K29">
+    <cfRule type="containsText" dxfId="3" priority="29" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K24)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3098,11 +3568,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K21">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K12)))</formula>
+  <conditionalFormatting sqref="K32:K37">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K32)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3113,69 +3583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D29">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:I29">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K29">
-    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K24)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D37">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I37">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K37">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K32)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="K40:K47">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3186,34 +3594,15 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D47">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40:I47">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="K50:K55">
+    <cfRule type="containsText" dxfId="0" priority="32" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K50)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:K47">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K40)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
